--- a/xlsx/烏克蘭_intext.xlsx
+++ b/xlsx/烏克蘭_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1286">
   <si>
     <t>烏克蘭</t>
   </si>
@@ -29,7 +29,7 @@
     <t>烏克蘭語</t>
   </si>
   <si>
-    <t>政策_政策_美國_烏克蘭</t>
+    <t>体育运动_体育运动_提高体育成绩药物的使用_烏克蘭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD%E5%9C%8B%E6%97%97</t>
@@ -2252,10 +2252,34 @@
     <t>英国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>爱尔兰共和国</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
@@ -2342,10 +2366,16 @@
     <t>列支敦斯登</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
@@ -2360,10 +2390,10 @@
     <t>拉脫維亞</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
@@ -2450,18 +2480,18 @@
     <t>義大利</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
     <t>聖座</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
   </si>
   <si>
@@ -2486,10 +2516,10 @@
     <t>安道尔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -2540,16 +2570,22 @@
     <t>馬爾他騎士團</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
   </si>
   <si>
     <t>土耳其</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -2558,10 +2594,10 @@
     <t>哈萨克斯坦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -4185,7 +4221,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I690"/>
+  <dimension ref="A1:I696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6356,7 +6392,7 @@
         <v>142</v>
       </c>
       <c r="G75" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
@@ -6559,7 +6595,7 @@
         <v>156</v>
       </c>
       <c r="G82" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -7052,7 +7088,7 @@
         <v>190</v>
       </c>
       <c r="G99" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -7516,7 +7552,7 @@
         <v>222</v>
       </c>
       <c r="G115" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -16303,7 +16339,7 @@
         <v>748</v>
       </c>
       <c r="G418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H418" t="s">
         <v>4</v>
@@ -16332,7 +16368,7 @@
         <v>750</v>
       </c>
       <c r="G419" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H419" t="s">
         <v>4</v>
@@ -16361,7 +16397,7 @@
         <v>752</v>
       </c>
       <c r="G420" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H420" t="s">
         <v>4</v>
@@ -16390,7 +16426,7 @@
         <v>754</v>
       </c>
       <c r="G421" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H421" t="s">
         <v>4</v>
@@ -16448,7 +16484,7 @@
         <v>758</v>
       </c>
       <c r="G423" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H423" t="s">
         <v>4</v>
@@ -16477,7 +16513,7 @@
         <v>760</v>
       </c>
       <c r="G424" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H424" t="s">
         <v>4</v>
@@ -16506,7 +16542,7 @@
         <v>762</v>
       </c>
       <c r="G425" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H425" t="s">
         <v>4</v>
@@ -16535,7 +16571,7 @@
         <v>764</v>
       </c>
       <c r="G426" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H426" t="s">
         <v>4</v>
@@ -16564,7 +16600,7 @@
         <v>766</v>
       </c>
       <c r="G427" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H427" t="s">
         <v>4</v>
@@ -16593,7 +16629,7 @@
         <v>768</v>
       </c>
       <c r="G428" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H428" t="s">
         <v>4</v>
@@ -16622,7 +16658,7 @@
         <v>770</v>
       </c>
       <c r="G429" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H429" t="s">
         <v>4</v>
@@ -16651,7 +16687,7 @@
         <v>772</v>
       </c>
       <c r="G430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H430" t="s">
         <v>4</v>
@@ -16680,7 +16716,7 @@
         <v>774</v>
       </c>
       <c r="G431" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H431" t="s">
         <v>4</v>
@@ -16709,7 +16745,7 @@
         <v>776</v>
       </c>
       <c r="G432" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H432" t="s">
         <v>4</v>
@@ -16883,7 +16919,7 @@
         <v>788</v>
       </c>
       <c r="G438" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H438" t="s">
         <v>4</v>
@@ -16999,7 +17035,7 @@
         <v>796</v>
       </c>
       <c r="G442" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H442" t="s">
         <v>4</v>
@@ -17086,7 +17122,7 @@
         <v>802</v>
       </c>
       <c r="G445" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H445" t="s">
         <v>4</v>
@@ -17202,7 +17238,7 @@
         <v>810</v>
       </c>
       <c r="G449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H449" t="s">
         <v>4</v>
@@ -17231,7 +17267,7 @@
         <v>812</v>
       </c>
       <c r="G450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H450" t="s">
         <v>4</v>
@@ -17289,7 +17325,7 @@
         <v>816</v>
       </c>
       <c r="G452" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H452" t="s">
         <v>4</v>
@@ -17347,7 +17383,7 @@
         <v>820</v>
       </c>
       <c r="G454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H454" t="s">
         <v>4</v>
@@ -17376,7 +17412,7 @@
         <v>822</v>
       </c>
       <c r="G455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H455" t="s">
         <v>4</v>
@@ -17463,7 +17499,7 @@
         <v>828</v>
       </c>
       <c r="G458" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H458" t="s">
         <v>4</v>
@@ -17492,7 +17528,7 @@
         <v>830</v>
       </c>
       <c r="G459" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H459" t="s">
         <v>4</v>
@@ -17521,7 +17557,7 @@
         <v>832</v>
       </c>
       <c r="G460" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H460" t="s">
         <v>4</v>
@@ -17666,7 +17702,7 @@
         <v>842</v>
       </c>
       <c r="G465" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H465" t="s">
         <v>4</v>
@@ -17724,7 +17760,7 @@
         <v>846</v>
       </c>
       <c r="G467" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H467" t="s">
         <v>4</v>
@@ -17811,7 +17847,7 @@
         <v>852</v>
       </c>
       <c r="G470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H470" t="s">
         <v>4</v>
@@ -17840,7 +17876,7 @@
         <v>854</v>
       </c>
       <c r="G471" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H471" t="s">
         <v>4</v>
@@ -17898,7 +17934,7 @@
         <v>858</v>
       </c>
       <c r="G473" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H473" t="s">
         <v>4</v>
@@ -17979,13 +18015,13 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>351</v>
+        <v>863</v>
       </c>
       <c r="F476" t="s">
-        <v>352</v>
+        <v>864</v>
       </c>
       <c r="G476" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H476" t="s">
         <v>4</v>
@@ -18008,13 +18044,13 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="F477" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="G477" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H477" t="s">
         <v>4</v>
@@ -18037,13 +18073,13 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="F478" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="G478" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H478" t="s">
         <v>4</v>
@@ -18066,13 +18102,13 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="F479" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G479" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H479" t="s">
         <v>4</v>
@@ -18095,13 +18131,13 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="F480" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="G480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H480" t="s">
         <v>4</v>
@@ -18124,13 +18160,13 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="F481" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="G481" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H481" t="s">
         <v>4</v>
@@ -18153,13 +18189,13 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>873</v>
+        <v>351</v>
       </c>
       <c r="F482" t="s">
-        <v>874</v>
+        <v>352</v>
       </c>
       <c r="G482" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H482" t="s">
         <v>4</v>
@@ -18188,7 +18224,7 @@
         <v>876</v>
       </c>
       <c r="G483" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H483" t="s">
         <v>4</v>
@@ -18217,7 +18253,7 @@
         <v>878</v>
       </c>
       <c r="G484" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H484" t="s">
         <v>4</v>
@@ -18246,7 +18282,7 @@
         <v>880</v>
       </c>
       <c r="G485" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H485" t="s">
         <v>4</v>
@@ -18275,7 +18311,7 @@
         <v>882</v>
       </c>
       <c r="G486" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H486" t="s">
         <v>4</v>
@@ -18304,7 +18340,7 @@
         <v>884</v>
       </c>
       <c r="G487" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H487" t="s">
         <v>4</v>
@@ -18333,7 +18369,7 @@
         <v>886</v>
       </c>
       <c r="G488" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H488" t="s">
         <v>4</v>
@@ -18681,7 +18717,7 @@
         <v>910</v>
       </c>
       <c r="G500" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H500" t="s">
         <v>4</v>
@@ -18855,7 +18891,7 @@
         <v>922</v>
       </c>
       <c r="G506" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H506" t="s">
         <v>4</v>
@@ -18884,7 +18920,7 @@
         <v>924</v>
       </c>
       <c r="G507" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H507" t="s">
         <v>4</v>
@@ -18913,7 +18949,7 @@
         <v>926</v>
       </c>
       <c r="G508" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H508" t="s">
         <v>4</v>
@@ -18942,7 +18978,7 @@
         <v>928</v>
       </c>
       <c r="G509" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H509" t="s">
         <v>4</v>
@@ -18971,7 +19007,7 @@
         <v>930</v>
       </c>
       <c r="G510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H510" t="s">
         <v>4</v>
@@ -19000,7 +19036,7 @@
         <v>932</v>
       </c>
       <c r="G511" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H511" t="s">
         <v>4</v>
@@ -19058,7 +19094,7 @@
         <v>936</v>
       </c>
       <c r="G513" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H513" t="s">
         <v>4</v>
@@ -19087,7 +19123,7 @@
         <v>938</v>
       </c>
       <c r="G514" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H514" t="s">
         <v>4</v>
@@ -19116,7 +19152,7 @@
         <v>940</v>
       </c>
       <c r="G515" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H515" t="s">
         <v>4</v>
@@ -19174,7 +19210,7 @@
         <v>944</v>
       </c>
       <c r="G517" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H517" t="s">
         <v>4</v>
@@ -19232,7 +19268,7 @@
         <v>948</v>
       </c>
       <c r="G519" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H519" t="s">
         <v>4</v>
@@ -19261,7 +19297,7 @@
         <v>950</v>
       </c>
       <c r="G520" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H520" t="s">
         <v>4</v>
@@ -19290,7 +19326,7 @@
         <v>952</v>
       </c>
       <c r="G521" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H521" t="s">
         <v>4</v>
@@ -19319,7 +19355,7 @@
         <v>954</v>
       </c>
       <c r="G522" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H522" t="s">
         <v>4</v>
@@ -19377,7 +19413,7 @@
         <v>958</v>
       </c>
       <c r="G524" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H524" t="s">
         <v>4</v>
@@ -19406,7 +19442,7 @@
         <v>960</v>
       </c>
       <c r="G525" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H525" t="s">
         <v>4</v>
@@ -19435,7 +19471,7 @@
         <v>962</v>
       </c>
       <c r="G526" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H526" t="s">
         <v>4</v>
@@ -19464,7 +19500,7 @@
         <v>964</v>
       </c>
       <c r="G527" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H527" t="s">
         <v>4</v>
@@ -19522,7 +19558,7 @@
         <v>968</v>
       </c>
       <c r="G529" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H529" t="s">
         <v>4</v>
@@ -19551,7 +19587,7 @@
         <v>970</v>
       </c>
       <c r="G530" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H530" t="s">
         <v>4</v>
@@ -19667,7 +19703,7 @@
         <v>978</v>
       </c>
       <c r="G534" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H534" t="s">
         <v>4</v>
@@ -19696,7 +19732,7 @@
         <v>980</v>
       </c>
       <c r="G535" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H535" t="s">
         <v>4</v>
@@ -19812,7 +19848,7 @@
         <v>988</v>
       </c>
       <c r="G539" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H539" t="s">
         <v>4</v>
@@ -19841,7 +19877,7 @@
         <v>990</v>
       </c>
       <c r="G540" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H540" t="s">
         <v>4</v>
@@ -19928,7 +19964,7 @@
         <v>996</v>
       </c>
       <c r="G543" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H543" t="s">
         <v>4</v>
@@ -19986,7 +20022,7 @@
         <v>1000</v>
       </c>
       <c r="G545" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H545" t="s">
         <v>4</v>
@@ -20044,7 +20080,7 @@
         <v>1004</v>
       </c>
       <c r="G547" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H547" t="s">
         <v>4</v>
@@ -20073,7 +20109,7 @@
         <v>1006</v>
       </c>
       <c r="G548" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H548" t="s">
         <v>4</v>
@@ -20189,7 +20225,7 @@
         <v>1014</v>
       </c>
       <c r="G552" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H552" t="s">
         <v>4</v>
@@ -20218,7 +20254,7 @@
         <v>1016</v>
       </c>
       <c r="G553" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H553" t="s">
         <v>4</v>
@@ -20247,7 +20283,7 @@
         <v>1018</v>
       </c>
       <c r="G554" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H554" t="s">
         <v>4</v>
@@ -20305,7 +20341,7 @@
         <v>1022</v>
       </c>
       <c r="G556" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H556" t="s">
         <v>4</v>
@@ -20334,7 +20370,7 @@
         <v>1024</v>
       </c>
       <c r="G557" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H557" t="s">
         <v>4</v>
@@ -20392,7 +20428,7 @@
         <v>1028</v>
       </c>
       <c r="G559" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H559" t="s">
         <v>4</v>
@@ -20421,7 +20457,7 @@
         <v>1030</v>
       </c>
       <c r="G560" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H560" t="s">
         <v>4</v>
@@ -20479,7 +20515,7 @@
         <v>1034</v>
       </c>
       <c r="G562" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H562" t="s">
         <v>4</v>
@@ -20508,7 +20544,7 @@
         <v>1036</v>
       </c>
       <c r="G563" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H563" t="s">
         <v>4</v>
@@ -20537,7 +20573,7 @@
         <v>1038</v>
       </c>
       <c r="G564" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H564" t="s">
         <v>4</v>
@@ -20595,7 +20631,7 @@
         <v>1042</v>
       </c>
       <c r="G566" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H566" t="s">
         <v>4</v>
@@ -20740,7 +20776,7 @@
         <v>1052</v>
       </c>
       <c r="G571" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H571" t="s">
         <v>4</v>
@@ -20827,7 +20863,7 @@
         <v>1058</v>
       </c>
       <c r="G574" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H574" t="s">
         <v>4</v>
@@ -20856,7 +20892,7 @@
         <v>1060</v>
       </c>
       <c r="G575" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H575" t="s">
         <v>4</v>
@@ -20972,7 +21008,7 @@
         <v>1068</v>
       </c>
       <c r="G579" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H579" t="s">
         <v>4</v>
@@ -21001,7 +21037,7 @@
         <v>1070</v>
       </c>
       <c r="G580" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H580" t="s">
         <v>4</v>
@@ -21059,7 +21095,7 @@
         <v>1074</v>
       </c>
       <c r="G582" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H582" t="s">
         <v>4</v>
@@ -21146,7 +21182,7 @@
         <v>1080</v>
       </c>
       <c r="G585" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H585" t="s">
         <v>4</v>
@@ -21204,7 +21240,7 @@
         <v>1084</v>
       </c>
       <c r="G587" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H587" t="s">
         <v>4</v>
@@ -21233,7 +21269,7 @@
         <v>1086</v>
       </c>
       <c r="G588" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H588" t="s">
         <v>4</v>
@@ -21378,7 +21414,7 @@
         <v>1096</v>
       </c>
       <c r="G593" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H593" t="s">
         <v>4</v>
@@ -21436,7 +21472,7 @@
         <v>1100</v>
       </c>
       <c r="G595" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H595" t="s">
         <v>4</v>
@@ -21552,7 +21588,7 @@
         <v>1108</v>
       </c>
       <c r="G599" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H599" t="s">
         <v>4</v>
@@ -21581,7 +21617,7 @@
         <v>1110</v>
       </c>
       <c r="G600" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H600" t="s">
         <v>4</v>
@@ -21610,7 +21646,7 @@
         <v>1112</v>
       </c>
       <c r="G601" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H601" t="s">
         <v>4</v>
@@ -21639,7 +21675,7 @@
         <v>1114</v>
       </c>
       <c r="G602" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H602" t="s">
         <v>4</v>
@@ -21778,10 +21814,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>787</v>
+        <v>1123</v>
       </c>
       <c r="F607" t="s">
-        <v>788</v>
+        <v>1124</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -21807,13 +21843,13 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="F608" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="G608" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H608" t="s">
         <v>4</v>
@@ -21836,13 +21872,13 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="F609" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="G609" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H609" t="s">
         <v>4</v>
@@ -21865,13 +21901,13 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="F610" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="G610" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H610" t="s">
         <v>4</v>
@@ -21894,13 +21930,13 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="F611" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="G611" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H611" t="s">
         <v>4</v>
@@ -21923,13 +21959,13 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="F612" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="G612" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H612" t="s">
         <v>4</v>
@@ -21952,13 +21988,13 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1133</v>
+        <v>797</v>
       </c>
       <c r="F613" t="s">
-        <v>1134</v>
+        <v>798</v>
       </c>
       <c r="G613" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H613" t="s">
         <v>4</v>
@@ -22016,7 +22052,7 @@
         <v>1138</v>
       </c>
       <c r="G615" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H615" t="s">
         <v>4</v>
@@ -22045,7 +22081,7 @@
         <v>1140</v>
       </c>
       <c r="G616" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H616" t="s">
         <v>4</v>
@@ -22074,7 +22110,7 @@
         <v>1142</v>
       </c>
       <c r="G617" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H617" t="s">
         <v>4</v>
@@ -22306,7 +22342,7 @@
         <v>1158</v>
       </c>
       <c r="G625" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H625" t="s">
         <v>4</v>
@@ -22364,7 +22400,7 @@
         <v>1162</v>
       </c>
       <c r="G627" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H627" t="s">
         <v>4</v>
@@ -22480,7 +22516,7 @@
         <v>1170</v>
       </c>
       <c r="G631" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H631" t="s">
         <v>4</v>
@@ -22538,7 +22574,7 @@
         <v>1174</v>
       </c>
       <c r="G633" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H633" t="s">
         <v>4</v>
@@ -22567,7 +22603,7 @@
         <v>1176</v>
       </c>
       <c r="G634" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H634" t="s">
         <v>4</v>
@@ -22596,7 +22632,7 @@
         <v>1178</v>
       </c>
       <c r="G635" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H635" t="s">
         <v>4</v>
@@ -22654,7 +22690,7 @@
         <v>1182</v>
       </c>
       <c r="G637" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H637" t="s">
         <v>4</v>
@@ -22712,7 +22748,7 @@
         <v>1186</v>
       </c>
       <c r="G639" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H639" t="s">
         <v>4</v>
@@ -22741,7 +22777,7 @@
         <v>1188</v>
       </c>
       <c r="G640" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H640" t="s">
         <v>4</v>
@@ -22770,7 +22806,7 @@
         <v>1190</v>
       </c>
       <c r="G641" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H641" t="s">
         <v>4</v>
@@ -22857,7 +22893,7 @@
         <v>1196</v>
       </c>
       <c r="G644" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H644" t="s">
         <v>4</v>
@@ -23031,7 +23067,7 @@
         <v>1208</v>
       </c>
       <c r="G650" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H650" t="s">
         <v>4</v>
@@ -23118,7 +23154,7 @@
         <v>1214</v>
       </c>
       <c r="G653" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H653" t="s">
         <v>4</v>
@@ -23228,10 +23264,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>937</v>
+        <v>1221</v>
       </c>
       <c r="F657" t="s">
-        <v>938</v>
+        <v>1222</v>
       </c>
       <c r="G657" t="n">
         <v>1</v>
@@ -23257,10 +23293,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>947</v>
+        <v>1223</v>
       </c>
       <c r="F658" t="s">
-        <v>948</v>
+        <v>1224</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -23286,13 +23322,13 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>939</v>
+        <v>1225</v>
       </c>
       <c r="F659" t="s">
-        <v>940</v>
+        <v>1226</v>
       </c>
       <c r="G659" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H659" t="s">
         <v>4</v>
@@ -23315,10 +23351,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="F660" t="s">
-        <v>1222</v>
+        <v>1228</v>
       </c>
       <c r="G660" t="n">
         <v>1</v>
@@ -23344,10 +23380,10 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>799</v>
+        <v>1229</v>
       </c>
       <c r="F661" t="s">
-        <v>800</v>
+        <v>1230</v>
       </c>
       <c r="G661" t="n">
         <v>1</v>
@@ -23373,10 +23409,10 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1223</v>
+        <v>1231</v>
       </c>
       <c r="F662" t="s">
-        <v>1224</v>
+        <v>1232</v>
       </c>
       <c r="G662" t="n">
         <v>1</v>
@@ -23402,10 +23438,10 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1225</v>
+        <v>949</v>
       </c>
       <c r="F663" t="s">
-        <v>1226</v>
+        <v>950</v>
       </c>
       <c r="G663" t="n">
         <v>1</v>
@@ -23431,10 +23467,10 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1063</v>
+        <v>959</v>
       </c>
       <c r="F664" t="s">
-        <v>1064</v>
+        <v>960</v>
       </c>
       <c r="G664" t="n">
         <v>1</v>
@@ -23460,10 +23496,10 @@
         <v>664</v>
       </c>
       <c r="E665" t="s">
-        <v>1227</v>
+        <v>951</v>
       </c>
       <c r="F665" t="s">
-        <v>1228</v>
+        <v>952</v>
       </c>
       <c r="G665" t="n">
         <v>1</v>
@@ -23489,10 +23525,10 @@
         <v>665</v>
       </c>
       <c r="E666" t="s">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="F666" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="G666" t="n">
         <v>1</v>
@@ -23518,10 +23554,10 @@
         <v>666</v>
       </c>
       <c r="E667" t="s">
-        <v>1231</v>
+        <v>809</v>
       </c>
       <c r="F667" t="s">
-        <v>1232</v>
+        <v>810</v>
       </c>
       <c r="G667" t="n">
         <v>1</v>
@@ -23547,10 +23583,10 @@
         <v>667</v>
       </c>
       <c r="E668" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="F668" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="G668" t="n">
         <v>1</v>
@@ -23576,10 +23612,10 @@
         <v>668</v>
       </c>
       <c r="E669" t="s">
-        <v>1107</v>
+        <v>1237</v>
       </c>
       <c r="F669" t="s">
-        <v>1108</v>
+        <v>1238</v>
       </c>
       <c r="G669" t="n">
         <v>1</v>
@@ -23605,13 +23641,13 @@
         <v>669</v>
       </c>
       <c r="E670" t="s">
-        <v>789</v>
+        <v>1075</v>
       </c>
       <c r="F670" t="s">
-        <v>790</v>
+        <v>1076</v>
       </c>
       <c r="G670" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H670" t="s">
         <v>4</v>
@@ -23634,10 +23670,10 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="F671" t="s">
-        <v>1236</v>
+        <v>1240</v>
       </c>
       <c r="G671" t="n">
         <v>1</v>
@@ -23663,13 +23699,13 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>1237</v>
+        <v>1241</v>
       </c>
       <c r="F672" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="G672" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H672" t="s">
         <v>4</v>
@@ -23692,10 +23728,10 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="F673" t="s">
-        <v>1240</v>
+        <v>1244</v>
       </c>
       <c r="G673" t="n">
         <v>1</v>
@@ -23721,10 +23757,10 @@
         <v>673</v>
       </c>
       <c r="E674" t="s">
-        <v>1241</v>
+        <v>1245</v>
       </c>
       <c r="F674" t="s">
-        <v>1242</v>
+        <v>1246</v>
       </c>
       <c r="G674" t="n">
         <v>1</v>
@@ -23750,10 +23786,10 @@
         <v>674</v>
       </c>
       <c r="E675" t="s">
-        <v>1243</v>
+        <v>1119</v>
       </c>
       <c r="F675" t="s">
-        <v>1244</v>
+        <v>1120</v>
       </c>
       <c r="G675" t="n">
         <v>1</v>
@@ -23779,13 +23815,13 @@
         <v>675</v>
       </c>
       <c r="E676" t="s">
-        <v>1245</v>
+        <v>799</v>
       </c>
       <c r="F676" t="s">
-        <v>1246</v>
+        <v>800</v>
       </c>
       <c r="G676" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H676" t="s">
         <v>4</v>
@@ -23843,7 +23879,7 @@
         <v>1250</v>
       </c>
       <c r="G678" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H678" t="s">
         <v>4</v>
@@ -23872,7 +23908,7 @@
         <v>1252</v>
       </c>
       <c r="G679" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H679" t="s">
         <v>4</v>
@@ -24046,7 +24082,7 @@
         <v>1264</v>
       </c>
       <c r="G685" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H685" t="s">
         <v>4</v>
@@ -24162,7 +24198,7 @@
         <v>1272</v>
       </c>
       <c r="G689" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="H689" t="s">
         <v>4</v>
@@ -24185,10 +24221,10 @@
         <v>689</v>
       </c>
       <c r="E690" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="F690" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="G690" t="n">
         <v>1</v>
@@ -24197,6 +24233,180 @@
         <v>4</v>
       </c>
       <c r="I690" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="691" spans="1:9">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" t="s">
+        <v>0</v>
+      </c>
+      <c r="C691" t="s">
+        <v>1</v>
+      </c>
+      <c r="D691" t="n">
+        <v>690</v>
+      </c>
+      <c r="E691" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F691" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G691" t="n">
+        <v>1</v>
+      </c>
+      <c r="H691" t="s">
+        <v>4</v>
+      </c>
+      <c r="I691" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="692" spans="1:9">
+      <c r="A692" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" t="s">
+        <v>0</v>
+      </c>
+      <c r="C692" t="s">
+        <v>1</v>
+      </c>
+      <c r="D692" t="n">
+        <v>691</v>
+      </c>
+      <c r="E692" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F692" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G692" t="n">
+        <v>1</v>
+      </c>
+      <c r="H692" t="s">
+        <v>4</v>
+      </c>
+      <c r="I692" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="693" spans="1:9">
+      <c r="A693" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B693" t="s">
+        <v>0</v>
+      </c>
+      <c r="C693" t="s">
+        <v>1</v>
+      </c>
+      <c r="D693" t="n">
+        <v>692</v>
+      </c>
+      <c r="E693" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F693" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G693" t="n">
+        <v>1</v>
+      </c>
+      <c r="H693" t="s">
+        <v>4</v>
+      </c>
+      <c r="I693" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="694" spans="1:9">
+      <c r="A694" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B694" t="s">
+        <v>0</v>
+      </c>
+      <c r="C694" t="s">
+        <v>1</v>
+      </c>
+      <c r="D694" t="n">
+        <v>693</v>
+      </c>
+      <c r="E694" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F694" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G694" t="n">
+        <v>1</v>
+      </c>
+      <c r="H694" t="s">
+        <v>4</v>
+      </c>
+      <c r="I694" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="695" spans="1:9">
+      <c r="A695" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="B695" t="s">
+        <v>0</v>
+      </c>
+      <c r="C695" t="s">
+        <v>1</v>
+      </c>
+      <c r="D695" t="n">
+        <v>694</v>
+      </c>
+      <c r="E695" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F695" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G695" t="n">
+        <v>26</v>
+      </c>
+      <c r="H695" t="s">
+        <v>4</v>
+      </c>
+      <c r="I695" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="696" spans="1:9">
+      <c r="A696" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="B696" t="s">
+        <v>0</v>
+      </c>
+      <c r="C696" t="s">
+        <v>1</v>
+      </c>
+      <c r="D696" t="n">
+        <v>695</v>
+      </c>
+      <c r="E696" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F696" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G696" t="n">
+        <v>1</v>
+      </c>
+      <c r="H696" t="s">
+        <v>4</v>
+      </c>
+      <c r="I696" t="n">
         <v>3</v>
       </c>
     </row>
